--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>609225.0699498572</v>
+        <v>606786.6799914396</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>228.8311052927886</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>245.5201882054623</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>83.09405498756394</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>254.5167172826868</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.2205257453331</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>262.317388023566</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>352.6059908745367</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>315.9968882787554</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>1.64230657388322</v>
       </c>
       <c r="W7" t="n">
-        <v>130.7005565249857</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>78.86438712404227</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>223.0977753814039</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>51.57870353610232</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>139.3948594558972</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833894</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446352662</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>123.4790726454526</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.3725990111917</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.5813113004317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>11.79076481679262</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>41.74133133759114</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.026286001641</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699802</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>140.7058473537595</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365923</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>179.6966889559089</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>140.7058473537592</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E34" t="n">
-        <v>119.6255281319621</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880071</v>
       </c>
       <c r="C40" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>205.5383435306678</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2098.941407629261</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1729.978890688849</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>1371.713192082098</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1140.570661483322</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>729.5847566937146</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>314.512306538711</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2988.14195600668</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866152</v>
+        <v>2635.373300736565</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605072</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.941407629261</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1470.641605305656</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1215.957117099769</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>926.5399470628088</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>698.5503961647914</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.069587875905</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176918</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915838</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940026</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.2513404403938</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124869</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
         <v>213.4020639300938</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>939.8893561686509</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>711.8998052706336</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>711.8998052706336</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855439</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>942.9472709150275</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>942.9472709150275</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>557.1590183167832</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>146.1731135271756</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919561</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919561</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>732.4676803942471</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>563.5314974663402</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>413.4148580540044</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>265.5017644716113</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>118.6118169737009</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>118.6118169737009</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>118.6118169737009</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4996,16 +4996,16 @@
         <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368017</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368017</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368017</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y10" t="n">
-        <v>914.1161452244868</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5036,7 +5036,7 @@
         <v>92.81162322608048</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="J11" t="n">
         <v>372.3074987251932</v>
@@ -5048,16 +5048,16 @@
         <v>1461.457663018649</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O11" t="n">
         <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.497374127286</v>
@@ -5066,25 +5066,25 @@
         <v>4640.581161304024</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>92.81162322608048</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608048</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608048</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L12" t="n">
-        <v>141.6400447072594</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>733.658398959387</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>745.0885253246406</v>
+        <v>494.0589900220723</v>
       </c>
       <c r="C13" t="n">
-        <v>620.3621893191329</v>
+        <v>325.1228070941654</v>
       </c>
       <c r="D13" t="n">
-        <v>470.2455499067971</v>
+        <v>175.0061676818297</v>
       </c>
       <c r="E13" t="n">
-        <v>322.332456324404</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="F13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I13" t="n">
         <v>92.81162322608048</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410167</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S13" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T13" t="n">
-        <v>2208.696992124549</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U13" t="n">
-        <v>1919.620778439275</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V13" t="n">
-        <v>1664.936290233388</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W13" t="n">
-        <v>1375.519120196428</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1147.52956929841</v>
+        <v>896.5000339958422</v>
       </c>
       <c r="Y13" t="n">
-        <v>926.7369901548803</v>
+        <v>675.707454852312</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452597</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718121</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,13 +5738,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,49 +5753,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876729</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876729</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753371</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>282.869571492944</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>135.9796239950337</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>135.9796239950337</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602308</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396421</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.32989935946</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614428</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179126</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,55 +5981,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C25" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297701</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y25" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2082.596442208995</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.521215553192</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1538.836727347305</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1249.419557310345</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1021.430006412328</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>800.6374272687974</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,67 +6443,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>377.6556127449245</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>755.7618030552777</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>605.645163642942</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7169,25 +7169,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>408.925855915485</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
         <v>261.0127623330919</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1836.89229584329</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.207807637403</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>49.0875761818582</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>244.658203482571</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>46.61145443660422</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>23.89445018204685</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.2915261372936</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613729303</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.76774845317519</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.06136363537748</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -23434,7 +23434,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922736</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462203</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.0033420516631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.033496017354049e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631857005</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9188905722445</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>98.55338150863273</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295103</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.32043864788506</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>37.70876137137941</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
-        <v>24.81829093850962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E34" t="n">
-        <v>26.80843451460704</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="C40" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>80.64613085857638</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>951497.8763910693</v>
+        <v>951497.8763910701</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1021742.072877767</v>
+        <v>1021742.072877766</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1021742.072877767</v>
+        <v>1021742.072877766</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1021742.072877767</v>
+        <v>1021742.072877766</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1021742.072877767</v>
+        <v>1021742.072877766</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1021742.072877767</v>
+        <v>1021742.072877766</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1021742.072877767</v>
+        <v>1021742.072877766</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1021742.072877767</v>
+        <v>1021742.072877766</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503241</v>
+        <v>375475.6212503244</v>
       </c>
       <c r="C2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="D2" t="n">
         <v>410520.8849321416</v>
       </c>
-      <c r="D2" t="n">
-        <v>410520.8849321418</v>
-      </c>
       <c r="E2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190153</v>
       </c>
       <c r="F2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="G2" t="n">
         <v>403573.299845003</v>
       </c>
-      <c r="G2" t="n">
-        <v>403573.2998450032</v>
-      </c>
       <c r="H2" t="n">
-        <v>403573.2998450033</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="I2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450032</v>
@@ -26372,10 +26372,10 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189847</v>
+        <v>313680.0588189848</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504238</v>
+        <v>11452.26311504165</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832896</v>
+        <v>81924.27863832918</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704851</v>
+        <v>3077.017355704841</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52788.4775548204</v>
+        <v>52788.47755482081</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
         <v>13600.27549061739</v>
@@ -26436,25 +26436,25 @@
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184276</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26479,7 +26479,7 @@
         <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1113991.542593482</v>
+        <v>-1114166.768911892</v>
       </c>
       <c r="C6" t="n">
-        <v>209793.1014875543</v>
+        <v>209793.1014875541</v>
       </c>
       <c r="D6" t="n">
-        <v>209793.1014875543</v>
+        <v>209793.1014875541</v>
       </c>
       <c r="E6" t="n">
-        <v>-26082.5770044251</v>
+        <v>-26128.48199999084</v>
       </c>
       <c r="F6" t="n">
-        <v>277391.6987942108</v>
+        <v>277356.9608687759</v>
       </c>
       <c r="G6" t="n">
-        <v>288843.9619092537</v>
+        <v>288809.2239838174</v>
       </c>
       <c r="H6" t="n">
-        <v>288843.9619092534</v>
+        <v>288809.2239838175</v>
       </c>
       <c r="I6" t="n">
-        <v>288843.9619092533</v>
+        <v>288809.2239838175</v>
       </c>
       <c r="J6" t="n">
-        <v>71312.7595119756</v>
+        <v>71278.02158654004</v>
       </c>
       <c r="K6" t="n">
-        <v>288843.9619092532</v>
+        <v>288809.2239838173</v>
       </c>
       <c r="L6" t="n">
-        <v>288843.9619092532</v>
+        <v>288809.2239838174</v>
       </c>
       <c r="M6" t="n">
-        <v>206919.6832709244</v>
+        <v>206884.9453454884</v>
       </c>
       <c r="N6" t="n">
-        <v>285766.9445535484</v>
+        <v>285732.2066281127</v>
       </c>
       <c r="O6" t="n">
-        <v>288843.961909253</v>
+        <v>288809.2239838177</v>
       </c>
       <c r="P6" t="n">
-        <v>288843.9619092534</v>
+        <v>288809.2239838175</v>
       </c>
     </row>
   </sheetData>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26969,7 +26969,7 @@
         <v>268.2643481230868</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625289057</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26990,13 +26990,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237129</v>
+        <v>328.7438349237132</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237129</v>
+        <v>328.7438349237132</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237129</v>
+        <v>328.7438349237132</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>153.0992647794732</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>115.2143833957823</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>12.66690089647085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>70.24105037729817</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>250.4953367499448</v>
       </c>
       <c r="W7" t="n">
-        <v>155.8224418116053</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>332.0573385294112</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.1431933360091</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>44.77371687373577</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>147.1281388806938</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28497,10 +28497,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-2.788709462066248e-12</v>
       </c>
       <c r="H16" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.916515846374476e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138797</v>
@@ -31616,7 +31616,7 @@
         <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P9" t="n">
         <v>447.6103584002928</v>
@@ -31835,19 +31835,19 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L12" t="n">
-        <v>187.8760176396509</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>197.8673674492848</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927636</v>
@@ -31856,13 +31856,13 @@
         <v>694.9967242426203</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862159</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963265</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,10 +34463,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35252,7 +35252,7 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340056</v>
@@ -35264,7 +35264,7 @@
         <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L12" t="n">
-        <v>49.32163785977673</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>55.73333352726647</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094304</v>
@@ -35504,13 +35504,13 @@
         <v>552.4004797981759</v>
       </c>
       <c r="P12" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>232.8901757426736</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164523</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394598</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,10 +38111,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
